--- a/exec/result.xlsx
+++ b/exec/result.xlsx
@@ -102,10 +102,8 @@
     <col min="4" max="4" width="18.0" customWidth="true"/>
     <col min="5" max="5" width="12.0" customWidth="true"/>
     <col min="6" max="6" width="18.0" customWidth="true"/>
-    <col min="7" max="7" width="24.0" customWidth="true"/>
-    <col min="8" max="8" width="18.0" customWidth="true"/>
-    <col min="9" max="9" width="12.0" customWidth="true"/>
-    <col min="10" max="10" width="12.0" customWidth="true"/>
+    <col min="7" max="7" width="12.0" customWidth="true"/>
+    <col min="8" max="8" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -146,17 +144,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>分配结果</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>分配结果</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>分配结果</t>
+          <t>合计</t>
         </is>
       </c>
     </row>
@@ -188,25 +176,15 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>直接投入</t>
+          <t>人员人工</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>人员人工费用</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>人员人工</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
@@ -220,36 +198,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A项目</t>
+          <t>可移动文物管理系统的开发</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020-02-01</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-10-01</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n">
-        <v>2631.5789</v>
+        <v>8756.053304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>836.5</v>
       </c>
       <c r="H3" t="n">
-        <v>216599.1874</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11032.3885</v>
-      </c>
-      <c r="J3" t="n">
-        <v>230263.1548</v>
+        <v>9592.553304</v>
       </c>
     </row>
     <row r="4">
@@ -260,36 +232,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B项目</t>
+          <t>客流监测预警系统的开发</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2020-03-01</t>
+          <t>2019-11-16</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2020-03-16</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3157.8947</v>
+        <v>2933.333304</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>836.5</v>
       </c>
       <c r="H4" t="n">
-        <v>56842.1046</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6315.7894</v>
-      </c>
-      <c r="J4" t="n">
-        <v>66315.7887</v>
+        <v>3769.833304</v>
       </c>
     </row>
     <row r="5">
@@ -300,36 +266,186 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C项目</t>
+          <t>博物馆综合信息管理系统的开发</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="n">
-        <v>84210.5263</v>
+        <v>2933.333304</v>
       </c>
       <c r="G5" t="n">
-        <v>50000.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>516558.7062</v>
-      </c>
-      <c r="I5" t="n">
-        <v>27651.8219</v>
-      </c>
-      <c r="J5" t="n">
-        <v>678421.0544</v>
+        <v>2933.333304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>数字资源管理系统的开发</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>遗产地综合信息管理系统的开发</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>文物综合监测系统的开发</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2020-06-14</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2020-11-12</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>文物保护远程咨询及协同共享服务系统的开发</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2020-07-12</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>14622.719912</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1673.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16295.719912</v>
       </c>
     </row>
   </sheetData>
@@ -339,7 +455,8 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/exec/result.xlsx
+++ b/exec/result.xlsx
@@ -215,13 +215,13 @@
         <v>6.0</v>
       </c>
       <c r="F3" t="n">
-        <v>8756.053304</v>
+        <v>8095.247444</v>
       </c>
       <c r="G3" t="n">
-        <v>836.5</v>
+        <v>796.756789185</v>
       </c>
       <c r="H3" t="n">
-        <v>9592.553304</v>
+        <v>8892.004233185</v>
       </c>
     </row>
     <row r="4">
@@ -249,13 +249,13 @@
         <v>6.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2933.333304</v>
+        <v>2441.75822</v>
       </c>
       <c r="G4" t="n">
-        <v>836.5</v>
+        <v>876.243210815</v>
       </c>
       <c r="H4" t="n">
-        <v>3769.833304</v>
+        <v>3318.001430815</v>
       </c>
     </row>
     <row r="5">
@@ -283,13 +283,13 @@
         <v>6.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2933.333304</v>
+        <v>4085.714292</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>2933.333304</v>
+        <v>4085.714292</v>
       </c>
     </row>
     <row r="6">
@@ -439,13 +439,13 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10" t="n">
-        <v>14622.719912</v>
+        <v>14622.719956</v>
       </c>
       <c r="G10" t="n">
         <v>1673.0</v>
       </c>
       <c r="H10" t="n">
-        <v>16295.719912</v>
+        <v>16295.719956</v>
       </c>
     </row>
   </sheetData>

--- a/exec/result.xlsx
+++ b/exec/result.xlsx
@@ -101,9 +101,13 @@
     <col min="3" max="3" width="18.0" customWidth="true"/>
     <col min="4" max="4" width="18.0" customWidth="true"/>
     <col min="5" max="5" width="12.0" customWidth="true"/>
-    <col min="6" max="6" width="18.0" customWidth="true"/>
-    <col min="7" max="7" width="12.0" customWidth="true"/>
-    <col min="8" max="8" width="12.0" customWidth="true"/>
+    <col min="6" max="6" width="54.0" customWidth="true"/>
+    <col min="7" max="7" width="51.0" customWidth="true"/>
+    <col min="8" max="8" width="48.0" customWidth="true"/>
+    <col min="9" max="9" width="48.0" customWidth="true"/>
+    <col min="10" max="10" width="51.0" customWidth="true"/>
+    <col min="11" max="11" width="48.0" customWidth="true"/>
+    <col min="12" max="12" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -144,6 +148,26 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>分配结果</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>分配结果</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>分配结果</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>分配结果</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>合计</t>
         </is>
       </c>
@@ -176,15 +200,35 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>人员人工</t>
+          <t>研发支出_项目_费用化支出_人员工资</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>研发支出_项目_费用化支出_差旅费</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>研发支出_项目_费用化支出_其他</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>研发支出_项目_费用化支出_房租</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>研发支出_项目_费用化支出_材料费</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>研发支出_项目_费用化支出_社保</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
@@ -198,30 +242,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>可移动文物管理系统的开发</t>
+          <t>SDI-329系统时间频率源研制</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-01-01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2019-07-01</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F3" t="n">
-        <v>8095.247444</v>
+        <v>63991.859375</v>
       </c>
       <c r="G3" t="n">
-        <v>796.756789185</v>
+        <v>1071.521875</v>
       </c>
       <c r="H3" t="n">
-        <v>8892.004233185</v>
+        <v>6976.200625</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6166.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4720.78828125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1448.5865625</v>
+      </c>
+      <c r="L3" t="n">
+        <v>84375.70671875</v>
       </c>
     </row>
     <row r="4">
@@ -232,30 +288,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>客流监测预警系统的开发</t>
+          <t>SSJZ-20授时模块研制</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-11-16</t>
+          <t>2019-04-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2020-03-16</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F4" t="n">
-        <v>2441.75822</v>
+        <v>135606.90625</v>
       </c>
       <c r="G4" t="n">
-        <v>876.243210815</v>
+        <v>3482.178125</v>
       </c>
       <c r="H4" t="n">
-        <v>3318.001430815</v>
+        <v>7058.419375</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16153.46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6450.6175</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4854.27078125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>173605.85203125</v>
       </c>
     </row>
     <row r="5">
@@ -266,30 +334,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>博物馆综合信息管理系统的开发</t>
+          <t>SDI-361E原子钟时钟设备研制</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-08-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2019-12-01</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>4085.714292</v>
+        <v>172776.16014536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>2698.133786744</v>
       </c>
       <c r="H5" t="n">
-        <v>4085.714292</v>
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13168.8175051428</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1520.00421875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7363.2162396752</v>
+      </c>
+      <c r="L5" t="n">
+        <v>197526.331895672</v>
       </c>
     </row>
     <row r="6">
@@ -300,30 +380,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>数字资源管理系统的开发</t>
+          <t>SDI-361CG时钟分配设备研制</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-12-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-05-29</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>28997.07422964</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>906.566213256</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1574.9824948572</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>717.8864165748</v>
+      </c>
+      <c r="L6" t="n">
+        <v>32196.509354328</v>
       </c>
     </row>
     <row r="7">
@@ -334,21 +426,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>遗产地综合信息管理系统的开发</t>
+          <t>SDI-COMPASS-T-R导航定位设备研制</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-04-01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-07-15</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -357,6 +449,18 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -368,21 +472,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>文物综合监测系统的开发</t>
+          <t>SDI-COMPASS-T-R(II)导航定位设备研制</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2020-06-14</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-11-12</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -391,61 +495,51 @@
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>文物保护远程咨询及协同共享服务系统的开发</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2020-07-12</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2020-12-31</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>6.0</v>
-      </c>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>401372.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>8158.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>合计</t>
-        </is>
-      </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" t="n">
-        <v>14622.719956</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1673.0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16295.719956</v>
+        <v>14034.62</v>
+      </c>
+      <c r="I9" t="n">
+        <v>37064.01</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12691.41</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14383.96</v>
+      </c>
+      <c r="L9" t="n">
+        <v>487704.4</v>
       </c>
     </row>
   </sheetData>
@@ -455,8 +549,8 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/exec/result.xlsx
+++ b/exec/result.xlsx
@@ -101,13 +101,8 @@
     <col min="3" max="3" width="18.0" customWidth="true"/>
     <col min="4" max="4" width="18.0" customWidth="true"/>
     <col min="5" max="5" width="12.0" customWidth="true"/>
-    <col min="6" max="6" width="54.0" customWidth="true"/>
-    <col min="7" max="7" width="51.0" customWidth="true"/>
-    <col min="8" max="8" width="48.0" customWidth="true"/>
-    <col min="9" max="9" width="48.0" customWidth="true"/>
-    <col min="10" max="10" width="51.0" customWidth="true"/>
-    <col min="11" max="11" width="48.0" customWidth="true"/>
-    <col min="12" max="12" width="12.0" customWidth="true"/>
+    <col min="6" max="6" width="18.0" customWidth="true"/>
+    <col min="7" max="7" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -143,31 +138,6 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>分配结果</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>分配结果</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>分配结果</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>分配结果</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>分配结果</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
           <t>合计</t>
         </is>
       </c>
@@ -200,35 +170,10 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>研发支出_项目_费用化支出_人员工资</t>
+          <t>人员人工</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>研发支出_项目_费用化支出_差旅费</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>研发支出_项目_费用化支出_其他</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>研发支出_项目_费用化支出_房租</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>研发支出_项目_费用化支出_材料费</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>研发支出_项目_费用化支出_社保</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
@@ -237,309 +182,297 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>RD01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SDI-329系统时间频率源研制</t>
+          <t>氯酸钠电解槽研发项目</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019-01-01</t>
+          <t>2018-01-01</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2019-07-01</t>
+          <t>2018-05-01</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F3" t="n">
-        <v>63991.859375</v>
+        <v>159213.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1071.521875</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6976.200625</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6166.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4720.78828125</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1448.5865625</v>
-      </c>
-      <c r="L3" t="n">
-        <v>84375.70671875</v>
+        <v>159213.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>RD02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SSJZ-20授时模块研制</t>
+          <t>氯酸钠结晶罐搅拌技术研发项目</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-04-01</t>
+          <t>2018-06-01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2019-10-01</t>
+          <t>2018-12-01</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F4" t="n">
-        <v>135606.90625</v>
+        <v>487883.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3482.178125</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7058.419375</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16153.46</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6450.6175</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4854.27078125</v>
-      </c>
-      <c r="L4" t="n">
-        <v>173605.85203125</v>
+        <v>487883.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>RD03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SDI-361E原子钟时钟设备研制</t>
+          <t>氯酸钠用高效电解电极技术研发项目</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019-08-01</t>
+          <t>2019-01-01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019-12-01</t>
+          <t>2019-03-01</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F5" t="n">
-        <v>172776.16014536</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2698.133786744</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>13168.8175051428</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1520.00421875</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7363.2162396752</v>
-      </c>
-      <c r="L5" t="n">
-        <v>197526.331895672</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>RD04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SDI-361CG时钟分配设备研制</t>
+          <t>高氯酸钾干燥技术研发项目</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019-12-01</t>
+          <t>2019-04-01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2020-05-01</t>
+          <t>2019-07-01</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F6" t="n">
-        <v>28997.07422964</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>906.566213256</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1574.9824948572</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>717.8864165748</v>
-      </c>
-      <c r="L6" t="n">
-        <v>32196.509354328</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>RD05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SDI-COMPASS-T-R导航定位设备研制</t>
+          <t>高氯酸钾母液蒸发浓缩研发项目</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-04-01</t>
+          <t>2019-08-01</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2019-10-01</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>RD06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SDI-COMPASS-T-R(II)导航定位设备研制</t>
+          <t>高氯酸钾废盐水浓缩蒸发技术研发项目</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2019-11-01</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2020-02-01</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>RD07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>高氯酸钾高效预热技术研发项目</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RD08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>高氯酸钾定量分装技术研发项目</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RD09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>氯酸钠晶体化料技术研发项目</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2020-10-01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" t="n">
-        <v>401372.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8158.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14034.62</v>
-      </c>
-      <c r="I9" t="n">
-        <v>37064.01</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12691.41</v>
-      </c>
-      <c r="K9" t="n">
-        <v>14383.96</v>
-      </c>
-      <c r="L9" t="n">
-        <v>487704.4</v>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>647096.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>647096.0</v>
       </c>
     </row>
   </sheetData>
@@ -549,8 +482,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
